--- a/Discovery Scripps Merger.xlsx
+++ b/Discovery Scripps Merger.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="252" windowWidth="15600" windowHeight="6852"/>
+    <workbookView xWindow="480" yWindow="252" windowWidth="15600" windowHeight="6852" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="60" r:id="rId1"/>
@@ -83,7 +83,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Content rights, prepaid expenses, other CA</t>
         </r>
@@ -97,7 +97,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Noncurrent content rights and other noncurrent assets</t>
         </r>
@@ -163,7 +163,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Common stock and APIC, (Treasury repurchases), RE, (OCI)</t>
         </r>
@@ -453,7 +453,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="240">
   <si>
     <t>Acquirer</t>
   </si>
@@ -1280,6 +1280,22 @@
   <si>
     <t>Cash EPS</t>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Net Income  </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(FY+1) (PE)</t>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -1309,7 +1325,7 @@
     <numFmt numFmtId="183" formatCode="&quot;FY&quot;\ 0"/>
     <numFmt numFmtId="184" formatCode="&quot;FYE&quot;\ mmm\-yy"/>
   </numFmts>
-  <fonts count="43" x14ac:knownFonts="1">
+  <fonts count="42" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1625,13 +1641,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -1935,7 +1944,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="297">
+  <cellXfs count="302">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2475,12 +2484,68 @@
     <xf numFmtId="167" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="168" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="171" fontId="5" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="7" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="5">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -2599,6 +2664,18 @@
               <c:numCache>
                 <c:formatCode>0.0%_);\(0.0%\);@_)</c:formatCode>
                 <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.65520873228648024</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.6328320802005013</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.62525562372188137</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.61427285981155866</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2670,6 +2747,18 @@
               <c:numCache>
                 <c:formatCode>0.0%_);\(0.0%\);@_)</c:formatCode>
                 <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.3447912677135197</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.36716791979949875</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.37474437627811863</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.38572714018844129</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2714,7 +2803,7 @@
         <c:axId val="290716608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="0.5"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -2836,7 +2925,7 @@
                   <c:v>EBITDA (FY+1)</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Net Income  (FY+1)</c:v>
+                  <c:v>Net Income  (FY+1) (PE)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2847,6 +2936,15 @@
               <c:numCache>
                 <c:formatCode>0.0\x_);\(0.0\x\);@_)</c:formatCode>
                 <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>3.3205085671196843</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.9989069801188108</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12.531676308094848</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2905,7 +3003,7 @@
                   <c:v>EBITDA (FY+1)</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Net Income  (FY+1)</c:v>
+                  <c:v>Net Income  (FY+1) (PE)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2916,6 +3014,15 @@
               <c:numCache>
                 <c:formatCode>0.0\x_);\(0.0\x\);@_)</c:formatCode>
                 <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>3.9622957956123304</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.7394042047781593</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16.0842512414734</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2974,7 +3081,7 @@
                   <c:v>EBITDA (FY+1)</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Net Income  (FY+1)</c:v>
+                  <c:v>Net Income  (FY+1) (PE)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2985,6 +3092,15 @@
               <c:numCache>
                 <c:formatCode>0.0\x_);\(0.0\x\);@_)</c:formatCode>
                 <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>3.5417911992340105</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.2707938057142876</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13.862983785685071</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3149,16 +3265,16 @@
                 <c:formatCode>"$"#,##0.00_);\("$"#,##0.00\);@_)</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>72.357835051087108</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>81.718695641680242</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>70.121440581602073</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -19078,8 +19194,8 @@
   </sheetPr>
   <dimension ref="A1:R189"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E42" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N70" sqref="N70"/>
+    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I49" sqref="I49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -20897,7 +21013,7 @@
         <f t="shared" ref="L72:M72" si="16">L69/L70</f>
         <v>3.1415939298343618</v>
       </c>
-      <c r="M72" s="284">
+      <c r="M72" s="297">
         <f t="shared" si="16"/>
         <v>3.3727128116238716</v>
       </c>
@@ -20915,7 +21031,7 @@
         <f t="shared" ref="L73:M73" si="17">L53</f>
         <v>2.42</v>
       </c>
-      <c r="M73" s="285">
+      <c r="M73" s="298">
         <f t="shared" si="17"/>
         <v>2.64</v>
       </c>
@@ -20934,7 +21050,7 @@
         <f t="shared" ref="L74:M74" si="18">L72-L73</f>
         <v>0.72159392983436188</v>
       </c>
-      <c r="M74" s="286">
+      <c r="M74" s="299">
         <f t="shared" si="18"/>
         <v>0.73271281162387147</v>
       </c>
@@ -20951,7 +21067,7 @@
         <f t="shared" ref="L75:M75" si="19">1-L73/L72</f>
         <v>0.22969038836677635</v>
       </c>
-      <c r="M75" s="287">
+      <c r="M75" s="300">
         <f t="shared" si="19"/>
         <v>0.21724731767810668</v>
       </c>
@@ -20970,7 +21086,7 @@
         <f t="shared" ref="L76:M76" si="20">MAX(0,-((L74*L70)/(1-$C$42)))</f>
         <v>0</v>
       </c>
-      <c r="M76" s="288">
+      <c r="M76" s="301">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
@@ -21966,6 +22082,31 @@
       <c r="M189" s="84"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="J84:M88">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J93:M98">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J104:M108">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J114:M118">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J124:M128">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
+      <formula>5</formula>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C31">
       <formula1>"Stock, Asset"</formula1>
@@ -21990,8 +22131,8 @@
   </sheetPr>
   <dimension ref="B2:K46"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -22600,8 +22741,8 @@
   </sheetPr>
   <dimension ref="B2:E50"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -22643,16 +22784,28 @@
       <c r="B6" s="94" t="s">
         <v>122</v>
       </c>
-      <c r="C6" s="247"/>
-      <c r="D6" s="247"/>
+      <c r="C6" s="247">
+        <f>Model!C15</f>
+        <v>26.4</v>
+      </c>
+      <c r="D6" s="247">
+        <f>Shares!F7</f>
+        <v>90</v>
+      </c>
       <c r="E6" s="100"/>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B7" s="122" t="s">
         <v>123</v>
       </c>
-      <c r="C7" s="248"/>
-      <c r="D7" s="248"/>
+      <c r="C7" s="248">
+        <f>Shares!K14</f>
+        <v>580.53939866666667</v>
+      </c>
+      <c r="D7" s="248">
+        <f>Shares!F14</f>
+        <v>130.99729066666669</v>
+      </c>
       <c r="E7" s="100"/>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.3">
@@ -22661,11 +22814,11 @@
       </c>
       <c r="C8" s="95">
         <f>C6*C7</f>
-        <v>0</v>
+        <v>15326.240124799999</v>
       </c>
       <c r="D8" s="95">
         <f>D6*D7</f>
-        <v>0</v>
+        <v>11789.756160000001</v>
       </c>
       <c r="E8" s="221"/>
     </row>
@@ -22673,8 +22826,14 @@
       <c r="B9" s="87" t="s">
         <v>132</v>
       </c>
-      <c r="C9" s="249"/>
-      <c r="D9" s="249"/>
+      <c r="C9" s="249">
+        <f>Model!I38</f>
+        <v>7396</v>
+      </c>
+      <c r="D9" s="249">
+        <f>Model!J38</f>
+        <v>2478.4710000000005</v>
+      </c>
       <c r="E9" s="234"/>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.3">
@@ -22683,11 +22842,11 @@
       </c>
       <c r="C10" s="95">
         <f>C8+C9</f>
-        <v>0</v>
+        <v>22722.240124799999</v>
       </c>
       <c r="D10" s="95">
         <f>D8+D9</f>
-        <v>0</v>
+        <v>14268.227160000002</v>
       </c>
       <c r="E10" s="95"/>
     </row>
@@ -22700,33 +22859,51 @@
       <c r="B12" s="94" t="s">
         <v>212</v>
       </c>
-      <c r="C12" s="245"/>
-      <c r="D12" s="245"/>
+      <c r="C12" s="245">
+        <f>Calendarization!C31</f>
+        <v>6843</v>
+      </c>
+      <c r="D12" s="245">
+        <f>Calendarization!I31</f>
+        <v>3601</v>
+      </c>
       <c r="E12" s="129">
         <f>SUM(C12:D12)</f>
-        <v>0</v>
+        <v>10444</v>
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B13" s="94" t="s">
         <v>213</v>
       </c>
-      <c r="C13" s="245"/>
-      <c r="D13" s="245"/>
+      <c r="C13" s="245">
+        <f>Calendarization!C25</f>
+        <v>2525</v>
+      </c>
+      <c r="D13" s="245">
+        <f>Calendarization!I25</f>
+        <v>1465</v>
+      </c>
       <c r="E13" s="129">
         <f>SUM(C13:D13)</f>
-        <v>0</v>
+        <v>3990</v>
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B14" s="94" t="s">
         <v>214</v>
       </c>
-      <c r="C14" s="246"/>
-      <c r="D14" s="246"/>
+      <c r="C14" s="246">
+        <f>Calendarization!C19</f>
+        <v>1223</v>
+      </c>
+      <c r="D14" s="246">
+        <f>Calendarization!I19</f>
+        <v>733</v>
+      </c>
       <c r="E14" s="129">
         <f>SUM(C14:D14)</f>
-        <v>0</v>
+        <v>1956</v>
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.3">
@@ -22741,33 +22918,69 @@
       <c r="B16" s="94" t="s">
         <v>212</v>
       </c>
-      <c r="C16" s="250"/>
-      <c r="D16" s="250"/>
-      <c r="E16" s="251"/>
+      <c r="C16" s="250">
+        <f>C12/$E$12</f>
+        <v>0.65520873228648024</v>
+      </c>
+      <c r="D16" s="250">
+        <f>D12/$E$12</f>
+        <v>0.3447912677135197</v>
+      </c>
+      <c r="E16" s="251">
+        <f>SUM(C16:D16)</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="17" spans="2:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B17" s="94" t="s">
         <v>213</v>
       </c>
-      <c r="C17" s="250"/>
-      <c r="D17" s="250"/>
-      <c r="E17" s="251"/>
+      <c r="C17" s="250">
+        <f>C13/$E$13</f>
+        <v>0.6328320802005013</v>
+      </c>
+      <c r="D17" s="250">
+        <f>D13/$E$13</f>
+        <v>0.36716791979949875</v>
+      </c>
+      <c r="E17" s="251">
+        <f t="shared" ref="E17:E19" si="0">SUM(C17:D17)</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="18" spans="2:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B18" s="94" t="s">
         <v>214</v>
       </c>
-      <c r="C18" s="252"/>
-      <c r="D18" s="250"/>
-      <c r="E18" s="251"/>
+      <c r="C18" s="252">
+        <f>C14/$E$14</f>
+        <v>0.62525562372188137</v>
+      </c>
+      <c r="D18" s="252">
+        <f>D14/$E$14</f>
+        <v>0.37474437627811863</v>
+      </c>
+      <c r="E18" s="251">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="19" spans="2:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B19" s="94" t="s">
         <v>158</v>
       </c>
-      <c r="C19" s="252"/>
-      <c r="D19" s="252"/>
-      <c r="E19" s="251"/>
+      <c r="C19" s="252">
+        <f>C10/SUM(C10:D10)</f>
+        <v>0.61427285981155866</v>
+      </c>
+      <c r="D19" s="252">
+        <f>D10/SUM(C10:D10)</f>
+        <v>0.38572714018844129</v>
+      </c>
+      <c r="E19" s="251">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="20" spans="2:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B20" s="81" t="s">
@@ -22778,25 +22991,52 @@
       <c r="B21" s="94" t="s">
         <v>212</v>
       </c>
-      <c r="C21" s="253"/>
-      <c r="D21" s="253"/>
-      <c r="E21" s="253"/>
+      <c r="C21" s="253">
+        <f>C10/C12</f>
+        <v>3.3205085671196843</v>
+      </c>
+      <c r="D21" s="253">
+        <f>D10/D12</f>
+        <v>3.9622957956123304</v>
+      </c>
+      <c r="E21" s="253">
+        <f>SUM(C10:D10)/E12</f>
+        <v>3.5417911992340105</v>
+      </c>
     </row>
     <row r="22" spans="2:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B22" s="94" t="s">
         <v>213</v>
       </c>
-      <c r="C22" s="253"/>
-      <c r="D22" s="253"/>
-      <c r="E22" s="253"/>
+      <c r="C22" s="253">
+        <f>C10/C13</f>
+        <v>8.9989069801188108</v>
+      </c>
+      <c r="D22" s="253">
+        <f>D10/D13</f>
+        <v>9.7394042047781593</v>
+      </c>
+      <c r="E22" s="253">
+        <f>SUM(C10:D10)/E13</f>
+        <v>9.2707938057142876</v>
+      </c>
     </row>
     <row r="23" spans="2:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B23" s="94" t="s">
-        <v>214</v>
-      </c>
-      <c r="C23" s="254"/>
-      <c r="D23" s="254"/>
-      <c r="E23" s="253"/>
+        <v>239</v>
+      </c>
+      <c r="C23" s="254">
+        <f>C8/C14</f>
+        <v>12.531676308094848</v>
+      </c>
+      <c r="D23" s="254">
+        <f>D8/D14</f>
+        <v>16.0842512414734</v>
+      </c>
+      <c r="E23" s="253">
+        <f>SUM(C8:D8)/E14</f>
+        <v>13.862983785685071</v>
+      </c>
     </row>
     <row r="24" spans="2:5" s="1" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="B24" s="123" t="s">
@@ -22827,39 +23067,69 @@
         <f>$C$5&amp;" enterprise value"</f>
         <v>Discovery enterprise value</v>
       </c>
-      <c r="D28" s="255"/>
-      <c r="E28" s="255"/>
+      <c r="D28" s="255">
+        <f>$C$10</f>
+        <v>22722.240124799999</v>
+      </c>
+      <c r="E28" s="255">
+        <f>$C$10</f>
+        <v>22722.240124799999</v>
+      </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B29" s="11" t="s">
         <v>219</v>
       </c>
-      <c r="D29" s="256"/>
-      <c r="E29" s="257"/>
+      <c r="D29" s="256">
+        <f>D28/C16</f>
+        <v>34679.391474997981</v>
+      </c>
+      <c r="E29" s="257">
+        <f>E28/C17</f>
+        <v>35905.638850674055</v>
+      </c>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B30" s="11" t="str">
         <f>"Implied "&amp;D5&amp;" enterprise value"</f>
         <v>Implied Scripps enterprise value</v>
       </c>
-      <c r="D30" s="257"/>
-      <c r="E30" s="257"/>
+      <c r="D30" s="255">
+        <f>D29-D28</f>
+        <v>11957.151350197983</v>
+      </c>
+      <c r="E30" s="255">
+        <f>E29-E28</f>
+        <v>13183.398725874056</v>
+      </c>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B31" s="7" t="str">
         <f>D5&amp;" Net debt"</f>
         <v>Scripps Net debt</v>
       </c>
-      <c r="D31" s="257"/>
-      <c r="E31" s="257"/>
+      <c r="D31" s="257">
+        <f>$D$9</f>
+        <v>2478.4710000000005</v>
+      </c>
+      <c r="E31" s="257">
+        <f>$D$9</f>
+        <v>2478.4710000000005</v>
+      </c>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B32" s="89" t="str">
         <f>"Implied "&amp;D5&amp;" Equity value"</f>
         <v>Implied Scripps Equity value</v>
       </c>
-      <c r="D32" s="258"/>
-      <c r="E32" s="258"/>
+      <c r="D32" s="258">
+        <f>D30-D31</f>
+        <v>9478.6803501979812</v>
+      </c>
+      <c r="E32" s="258">
+        <f>E30-E31</f>
+        <v>10704.927725874055</v>
+      </c>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B33" s="237" t="str">
@@ -22867,24 +23137,42 @@
         <v>Implied Scripps share price</v>
       </c>
       <c r="C33" s="64"/>
-      <c r="D33" s="259"/>
-      <c r="E33" s="260"/>
+      <c r="D33" s="259">
+        <f>D32/$D$7</f>
+        <v>72.357835051087108</v>
+      </c>
+      <c r="E33" s="259">
+        <f>E32/$D$7</f>
+        <v>81.718695641680242</v>
+      </c>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B34" s="238" t="s">
         <v>95</v>
       </c>
       <c r="C34" s="6"/>
-      <c r="D34" s="261"/>
-      <c r="E34" s="262"/>
+      <c r="D34" s="261">
+        <f>$D$6</f>
+        <v>90</v>
+      </c>
+      <c r="E34" s="261">
+        <f>$D$6</f>
+        <v>90</v>
+      </c>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B35" s="239" t="s">
         <v>218</v>
       </c>
       <c r="C35" s="29"/>
-      <c r="D35" s="263"/>
-      <c r="E35" s="264"/>
+      <c r="D35" s="263">
+        <f>D34/D33-1</f>
+        <v>0.24381830850048125</v>
+      </c>
+      <c r="E35" s="263">
+        <f>E34/E33-1</f>
+        <v>0.10133916471980386</v>
+      </c>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B37" s="1" t="s">
@@ -22900,20 +23188,29 @@
         <v>Discovery equity value</v>
       </c>
       <c r="D38" s="131"/>
-      <c r="E38" s="255"/>
+      <c r="E38" s="255">
+        <f>C8</f>
+        <v>15326.240124799999</v>
+      </c>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B39" s="11" t="s">
         <v>225</v>
       </c>
-      <c r="E39" s="255"/>
+      <c r="E39" s="255">
+        <f>E38/C18</f>
+        <v>24511.958858633523</v>
+      </c>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B40" s="89" t="str">
         <f>"Implied "&amp;D5&amp;" equity value"</f>
         <v>Implied Scripps equity value</v>
       </c>
-      <c r="E40" s="257"/>
+      <c r="E40" s="255">
+        <f>E39-E38</f>
+        <v>9185.7187338335243</v>
+      </c>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B41" s="237" t="str">
@@ -22922,7 +23219,10 @@
       </c>
       <c r="C41" s="64"/>
       <c r="D41" s="64"/>
-      <c r="E41" s="260"/>
+      <c r="E41" s="260">
+        <f>E40/D7</f>
+        <v>70.121440581602073</v>
+      </c>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B42" s="240" t="s">
@@ -22930,7 +23230,10 @@
       </c>
       <c r="C42" s="6"/>
       <c r="D42" s="6"/>
-      <c r="E42" s="262"/>
+      <c r="E42" s="262">
+        <f>D6</f>
+        <v>90</v>
+      </c>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B43" s="241" t="s">
@@ -22938,7 +23241,10 @@
       </c>
       <c r="C43" s="29"/>
       <c r="D43" s="29"/>
-      <c r="E43" s="264"/>
+      <c r="E43" s="264">
+        <f>E42/E41-1</f>
+        <v>0.28348760740682089</v>
+      </c>
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B45" s="242" t="s">
@@ -22960,7 +23266,7 @@
       </c>
       <c r="E47" s="131">
         <f>D33</f>
-        <v>0</v>
+        <v>72.357835051087108</v>
       </c>
     </row>
     <row r="48" spans="2:5" x14ac:dyDescent="0.3">
@@ -22969,7 +23275,7 @@
       </c>
       <c r="E48" s="131">
         <f>E33</f>
-        <v>0</v>
+        <v>81.718695641680242</v>
       </c>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.3">
@@ -22978,7 +23284,7 @@
       </c>
       <c r="E49" s="131">
         <f>E41</f>
-        <v>0</v>
+        <v>70.121440581602073</v>
       </c>
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.3">
@@ -22987,7 +23293,7 @@
       </c>
       <c r="E50" s="131">
         <f>E42</f>
-        <v>0</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
